--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,30 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>however</t>
+    <t>instead</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -79,90 +79,90 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>3</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -172,27 +172,27 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -202,25 +202,19 @@
     <t>happy</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -595,7 +589,7 @@
         <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -753,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7323943661971831</v>
+        <v>0.734375</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6774193548387096</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K6">
-        <v>0.703125</v>
+        <v>0.765625</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.668918918918919</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.65625</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K8">
-        <v>0.5652797704447633</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L8">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>303</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6456310679611651</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K9">
-        <v>0.5228215767634855</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L9">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="M9">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>230</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>0.5217391304347826</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5798319327731093</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C11">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K11">
-        <v>0.4770491803278689</v>
+        <v>0.4778688524590164</v>
       </c>
       <c r="L11">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M11">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5555555555555556</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K12">
-        <v>0.382262996941896</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>202</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,37 +1147,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5014492753623189</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>172</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>173</v>
-      </c>
-      <c r="D13">
-        <v>173</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>172</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K13">
-        <v>0.3544973544973545</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4578313253012048</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K14">
-        <v>0.3433734939759036</v>
+        <v>0.3700305810397553</v>
       </c>
       <c r="L14">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>109</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4409448818897638</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K15">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4315789473684211</v>
+        <v>0.421875</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K16">
-        <v>0.2578125</v>
+        <v>0.28125</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3933649289099526</v>
+        <v>0.4028436018957346</v>
       </c>
       <c r="C17">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>61</v>
@@ -1403,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3828125</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1421,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K18">
-        <v>0.24</v>
+        <v>0.2311827956989247</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>95</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3595505617977528</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1471,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K19">
-        <v>0.2043010752688172</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1495,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3163265306122449</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K20">
-        <v>0.1921052631578947</v>
+        <v>0.168273444347064</v>
       </c>
       <c r="L20">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="M20">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>921</v>
+        <v>949</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.297029702970297</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1571,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K21">
-        <v>0.1686746987951807</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1595,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>207</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2577319587628866</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,31 +1615,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K22">
-        <v>0.1096256684491979</v>
+        <v>0.1124106562703054</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>333</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1653,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.213768115942029</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1671,31 +1665,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K23">
-        <v>0.1065627030539311</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="L23">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="M23">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1375</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,13 +1697,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2025316455696203</v>
+        <v>0.225</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1721,31 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>252</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24">
-        <v>0.09192200557103064</v>
-      </c>
-      <c r="L24">
-        <v>33</v>
-      </c>
-      <c r="M24">
-        <v>33</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>326</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,13 +1723,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1993670886075949</v>
+        <v>0.213768115942029</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1771,31 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>253</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25">
-        <v>0.06133333333333333</v>
-      </c>
-      <c r="L25">
-        <v>46</v>
-      </c>
-      <c r="M25">
-        <v>48</v>
-      </c>
-      <c r="N25">
-        <v>0.96</v>
-      </c>
-      <c r="O25">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>704</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1803,13 +1749,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.19</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1821,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>162</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1829,25 +1775,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1800595238095238</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C27">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D27">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1855,25 +1801,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1775700934579439</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>176</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1881,13 +1827,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1695402298850575</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1899,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1907,13 +1853,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1518324607329843</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1925,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1933,13 +1879,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1387665198237885</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1951,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>391</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1959,13 +1905,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1209677419354839</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1977,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>218</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1985,25 +1931,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1178707224334601</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
         <v>31</v>
       </c>
-      <c r="D33">
-        <v>35</v>
-      </c>
       <c r="E33">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="F33">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2011,25 +1957,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.09619686800894854</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>404</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2063,25 +2009,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08757062146892655</v>
+        <v>0.09131403118040089</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>323</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2089,25 +2035,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.07781456953642384</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F37">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2115,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.07294117647058823</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F38">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2141,25 +2087,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.05776636713735558</v>
+        <v>0.05538461538461539</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E39">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="F39">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>734</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2167,25 +2113,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05521472392638037</v>
+        <v>0.05512820512820513</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E40">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="F40">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>616</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
